--- a/sd-suppr-draft-ror32/ig/CodeSystem-act-type-ror-codesystem.xlsx
+++ b/sd-suppr-draft-ror32/ig/CodeSystem-act-type-ror-codesystem.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-08T13:16:56+00:00</t>
+    <t>2024-07-08T14:19:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/sd-suppr-draft-ror32/ig/CodeSystem-act-type-ror-codesystem.xlsx
+++ b/sd-suppr-draft-ror32/ig/CodeSystem-act-type-ror-codesystem.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-08T14:19:55+00:00</t>
+    <t>2024-07-08T16:26:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/sd-suppr-draft-ror32/ig/CodeSystem-act-type-ror-codesystem.xlsx
+++ b/sd-suppr-draft-ror32/ig/CodeSystem-act-type-ror-codesystem.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-08T16:26:54+00:00</t>
+    <t>2024-07-08T16:41:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/sd-suppr-draft-ror32/ig/CodeSystem-act-type-ror-codesystem.xlsx
+++ b/sd-suppr-draft-ror32/ig/CodeSystem-act-type-ror-codesystem.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-08T16:41:34+00:00</t>
+    <t>2024-07-09T14:59:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
